--- a/medicine/Enfance/Christine_Chagnoux/Christine_Chagnoux.xlsx
+++ b/medicine/Enfance/Christine_Chagnoux/Christine_Chagnoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Chagnoux, née le 31 mars 1937 à Paris 6e et morte le 28 décembre 2020 à Paris 10e[1], est une peintre, dessinatrice, lithographe, graveuse, illustratrice et auteure de littérature d'enfance et de jeunesse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Chagnoux, née le 31 mars 1937 à Paris 6e et morte le 28 décembre 2020 à Paris 10e, est une peintre, dessinatrice, lithographe, graveuse, illustratrice et auteure de littérature d'enfance et de jeunesse française.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir reçu son diplôme de l'École nationale des beaux-arts de Paris en 1961, Christine Chagnoux se rend à New York.  Ensuite elle poursuit son séjour américain par quelques mois à Atlanta (Géorgie) et à Cheyenne (Wyoming) avant de rentrer à Paris. En mars 1963 Christine Chagnoux épouse le journaliste et écrivain américain Joseph A. Harriss, qui était affecté au bureau Parisien de Time magazine. Ils divorcent en 1969. Elle ne s'est pas remariée.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Textes et dessins (éditions Dargaud) :
 1967 : Petit Potam
@@ -578,7 +594,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Petit Potam a été adapté à deux reprises en dessin animé :
 1997 : Petit Potam, série télévisée d'animation réalisée par Bernard Deyriès.
